--- a/data/munjib/step1_PA_flagged.xlsx
+++ b/data/munjib/step1_PA_flagged.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V280"/>
+  <dimension ref="A1:V279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,7 +453,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>answer_writer</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>person_name</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V17" t="b">
@@ -1556,7 +1556,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>자암(自庵), 삼일재(三一齋)</t>
+          <t>자암(自庵);삼일재(三一齋)</t>
         </is>
       </c>
       <c r="P18" t="inlineStr"/>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V18" t="b">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>자암(自庵), 삼일재(三一齋)</t>
+          <t>자암(自庵);삼일재(三一齋)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1742,7 +1742,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V21" t="b">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V22" t="b">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>택지(澤之), 백유(伯濡)</t>
+          <t>택지(澤之);백유(伯濡)</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V26" t="b">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>부훤당(負暄堂)</t>
+          <t>부훤(負暄)</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V28" t="b">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V31" t="b">
@@ -2688,12 +2688,12 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>동고(東皐), 연방노인(蓮坊老人)</t>
+          <t>동고(東皐);연방노인(蓮坊老人)</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>남당(南堂), 홍련거사(紅蓮居士)</t>
+          <t>남당(南堂);홍련거사(紅蓮居士)</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V32" t="b">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V34" t="b">
@@ -3140,7 +3140,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -3232,7 +3232,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V40" t="b">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>약포(藥圃), 경재(敬齋)</t>
+          <t>약포(藥圃);경재(敬齋)</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -3606,7 +3606,7 @@
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V42" t="b">
@@ -3740,7 +3740,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>율곡(栗谷), 석담(石潭), 우재(愚齋)</t>
+          <t>율곡(栗谷);석담(石潭);우재(愚齋)</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
@@ -3762,7 +3762,7 @@
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V44" t="b">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V46" t="b">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>율곡(栗谷), 석담(石潭), 우재(愚齋)</t>
+          <t>율곡(栗谷);석담(石潭);우재(愚齋)</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V47" t="b">
@@ -4096,7 +4096,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -4298,7 +4298,7 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V50" t="b">
@@ -4390,7 +4390,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V51" t="b">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V53" t="b">
@@ -4634,7 +4634,7 @@
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V54" t="b">
@@ -4726,7 +4726,7 @@
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V55" t="b">
@@ -4906,7 +4906,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V57" t="b">
@@ -4998,7 +4998,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V58" t="b">
@@ -5090,7 +5090,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V59" t="b">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V65" t="b">
@@ -6028,7 +6028,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>다산(茶山), 죽오(竹塢)</t>
+          <t>다산(茶山);죽오(竹塢)</t>
         </is>
       </c>
       <c r="P70" t="inlineStr"/>
@@ -6050,7 +6050,7 @@
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V70" t="b">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V71" t="b">
@@ -6586,7 +6586,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V76" t="b">
@@ -7026,7 +7026,7 @@
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V81" t="b">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V82" t="b">
@@ -7286,7 +7286,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V84" t="b">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V85" t="b">
@@ -7556,7 +7556,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V87" t="b">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V89" t="b">
@@ -7996,7 +7996,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V92" t="b">
@@ -8164,7 +8164,7 @@
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V94" t="b">
@@ -8234,7 +8234,7 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>기암(畸菴), 천용자(天慵子), 청청헌(淸淸軒)</t>
+          <t>기암(畸菴);천용자(天慵子);청청헌(淸淸軒)</t>
         </is>
       </c>
       <c r="P95" t="inlineStr"/>
@@ -8348,7 +8348,7 @@
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V96" t="b">
@@ -8436,7 +8436,7 @@
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V97" t="b">
@@ -8520,7 +8520,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V98" t="b">
@@ -9216,7 +9216,7 @@
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V106" t="b">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V108" t="b">
@@ -9488,7 +9488,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V109" t="b">
@@ -9658,7 +9658,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V111" t="b">
@@ -9746,7 +9746,7 @@
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V112" t="b">
@@ -9834,7 +9834,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V113" t="b">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V115" t="b">
@@ -10272,7 +10272,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V118" t="b">
@@ -10364,7 +10364,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V119" t="b">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V124" t="b">
@@ -10980,7 +10980,7 @@
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V126" t="b">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V127" t="b">
@@ -11244,7 +11244,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V129" t="b">
@@ -11428,7 +11428,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V131" t="b">
@@ -11520,7 +11520,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V132" t="b">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V134" t="b">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V135" t="b">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V136" t="b">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V137" t="b">
@@ -12042,7 +12042,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V138" t="b">
@@ -12218,7 +12218,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V140" t="b">
@@ -12306,7 +12306,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V141" t="b">
@@ -12394,7 +12394,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V142" t="b">
@@ -12460,7 +12460,7 @@
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>누실(陋室), 약재(約齋)</t>
+          <t>누실(陋室);약재(約齋)</t>
         </is>
       </c>
       <c r="P143" t="inlineStr"/>
@@ -12482,7 +12482,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V143" t="b">
@@ -12632,7 +12632,7 @@
       </c>
       <c r="O145" t="inlineStr">
         <is>
-          <t>누실(陋室), 약재(約齋)</t>
+          <t>누실(陋室);약재(約齋)</t>
         </is>
       </c>
       <c r="P145" t="inlineStr"/>
@@ -12654,7 +12654,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V145" t="b">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="U149" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V149" t="b">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V150" t="b">
@@ -13166,7 +13166,7 @@
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V151" t="b">
@@ -13346,7 +13346,7 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V153" t="b">
@@ -13610,7 +13610,7 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V156" t="b">
@@ -13872,7 +13872,7 @@
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V159" t="b">
@@ -13956,7 +13956,7 @@
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V160" t="b">
@@ -14044,7 +14044,7 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V161" t="b">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V163" t="b">
@@ -14396,7 +14396,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V165" t="b">
@@ -14478,7 +14478,7 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V166" t="b">
@@ -14562,7 +14562,7 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V167" t="b">
@@ -14734,7 +14734,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V169" t="b">
@@ -15078,7 +15078,7 @@
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V173" t="b">
@@ -15226,7 +15226,7 @@
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V175" t="b">
@@ -15310,7 +15310,7 @@
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V176" t="b">
@@ -15375,12 +15375,12 @@
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>차수(次修), 재선(在先), 수기(修其)</t>
+          <t>차수(次修);재선(在先);수기(修其)</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>초정(楚亭), 정유(貞蕤), 위항도인(葦杭道人)</t>
+          <t>초정(楚亭);정유(貞蕤);위항도인(葦杭道人)</t>
         </is>
       </c>
       <c r="P177" t="inlineStr"/>
@@ -15480,7 +15480,7 @@
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V178" t="b">
@@ -15568,7 +15568,7 @@
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V179" t="b">
@@ -17590,7 +17590,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>부훤당(負暄堂)</t>
+          <t>부훤(負暄)</t>
         </is>
       </c>
       <c r="P203" t="inlineStr"/>
@@ -17612,7 +17612,7 @@
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V203" t="b">
@@ -18101,7 +18101,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>한성시, 조종저의 거주지, 문제를 통해 해당 시험으로 추측됨.</t>
+          <t>한성시;조종저의 거주지;문제를 통해 해당 시험으로 추측됨.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
@@ -18164,7 +18164,7 @@
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V209" t="b">
@@ -18193,7 +18193,7 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>규장각 확인 결과 부, 시 문제로 진사시로 추측됨. 그러나 구체적인 시험일자 확인 불가</t>
+          <t>규장각 확인 결과 부;시 문제로 진사시로 추측됨. 그러나 구체적인 시험일자 확인 불가</t>
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
@@ -18912,7 +18912,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P218" t="inlineStr">
@@ -19306,7 +19306,7 @@
       </c>
       <c r="U222" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V222" t="b">
@@ -19425,7 +19425,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>일치하는 시험 문제를 확인할 수 없었다. 또한, 한국고전종합DB 산목헌집 해제에서 부, 시, 표, 책이 1789년 초계문신으로 뽑혔을 때 課作으로 지은 것이라 설명되어 있다.</t>
+          <t>일치하는 시험 문제를 확인할 수 없었다. 또한;한국고전종합DB 산목헌집 해제에서 부;시;표;책이 1789년 초계문신으로 뽑혔을 때 課作으로 지은 것이라 설명되어 있다.</t>
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
@@ -20021,7 +20021,7 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>엑셀 1608번 問云云과 엑셀 1609 易義 精義入神以致用 문제가 같은 시권에 있다. 또한 4면에 응시자가 황세섭, 그의 나이가 40세였던 것을 통해 시험이 1710년에 치러졌던 것임을 확인하였다. 하지만 구체적인 시험 일정은 확인할 수 없었다</t>
+          <t>엑셀 1608번 問云云과 엑셀 1609 易義 精義入神以致用 문제가 같은 시권에 있다. 또한 4면에 응시자가 황세섭;그의 나이가 40세였던 것을 통해 시험이 1710년에 치러졌던 것임을 확인하였다. 하지만 구체적인 시험 일정은 확인할 수 없었다</t>
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
@@ -21276,7 +21276,7 @@
       </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V246" t="b">
@@ -21354,7 +21354,7 @@
       </c>
       <c r="U247" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V247" t="b">
@@ -21580,7 +21580,7 @@
       </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V250" t="b">
@@ -21958,7 +21958,7 @@
       </c>
       <c r="U255" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V255" t="b">
@@ -23458,7 +23458,7 @@
       </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>태을암(太乙菴), 백호자(白毫子)</t>
+          <t>태을암(太乙菴);백호자(白毫子)</t>
         </is>
       </c>
       <c r="P279" t="inlineStr"/>
@@ -23484,40 +23484,6 @@
         </is>
       </c>
       <c r="V279" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr"/>
-      <c r="B280" t="inlineStr"/>
-      <c r="C280" t="inlineStr"/>
-      <c r="D280" t="inlineStr"/>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>PE0000</t>
-        </is>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="inlineStr"/>
-      <c r="N280" t="inlineStr"/>
-      <c r="O280" t="inlineStr"/>
-      <c r="P280" t="inlineStr"/>
-      <c r="Q280" t="inlineStr"/>
-      <c r="R280" t="inlineStr"/>
-      <c r="S280" t="inlineStr"/>
-      <c r="T280" t="inlineStr"/>
-      <c r="U280" t="inlineStr">
-        <is>
-          <t>미상</t>
-        </is>
-      </c>
-      <c r="V280" t="b">
         <v>0</v>
       </c>
     </row>
@@ -23558,7 +23524,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>answer_writer</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -23593,7 +23559,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>person_name</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -23913,7 +23879,7 @@
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V4" t="b">
@@ -23983,7 +23949,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>자암(自庵), 삼일재(三一齋)</t>
+          <t>자암(自庵);삼일재(三一齋)</t>
         </is>
       </c>
       <c r="P5" t="inlineStr"/>
@@ -24005,7 +23971,7 @@
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V5" t="b">
@@ -24075,7 +24041,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>자암(自庵), 삼일재(三一齋)</t>
+          <t>자암(自庵);삼일재(三一齋)</t>
         </is>
       </c>
       <c r="P6" t="inlineStr"/>
@@ -24097,7 +24063,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V6" t="b">
@@ -24185,7 +24151,7 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V7" t="b">
@@ -24250,7 +24216,7 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>택지(澤之), 백유(伯濡)</t>
+          <t>택지(澤之);백유(伯濡)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -24541,7 +24507,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V11" t="b">
@@ -24699,7 +24665,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>부훤당(負暄堂)</t>
+          <t>부훤(負暄)</t>
         </is>
       </c>
       <c r="P13" t="inlineStr"/>
@@ -24721,7 +24687,7 @@
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V13" t="b">
@@ -24977,7 +24943,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V16" t="b">
@@ -25043,12 +25009,12 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>동고(東皐), 연방노인(蓮坊老人)</t>
+          <t>동고(東皐);연방노인(蓮坊老人)</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>남당(南堂), 홍련거사(紅蓮居士)</t>
+          <t>남당(南堂);홍련거사(紅蓮居士)</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -25069,7 +25035,7 @@
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V17" t="b">
@@ -25253,7 +25219,7 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V19" t="b">
@@ -25407,7 +25373,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -25499,7 +25465,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -25763,7 +25729,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>약포(藥圃), 경재(敬齋)</t>
+          <t>약포(藥圃);경재(敬齋)</t>
         </is>
       </c>
       <c r="P25" t="inlineStr"/>
@@ -25785,7 +25751,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V25" t="b">
@@ -25919,7 +25885,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>율곡(栗谷), 석담(石潭), 우재(愚齋)</t>
+          <t>율곡(栗谷);석담(石潭);우재(愚齋)</t>
         </is>
       </c>
       <c r="P27" t="inlineStr"/>
@@ -25941,7 +25907,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V27" t="b">
@@ -26029,7 +25995,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V28" t="b">
@@ -26095,7 +26061,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>율곡(栗谷), 석담(石潭), 우재(愚齋)</t>
+          <t>율곡(栗谷);석담(石潭);우재(愚齋)</t>
         </is>
       </c>
       <c r="P29" t="inlineStr"/>
@@ -26117,7 +26083,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V29" t="b">
@@ -26187,7 +26153,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -26389,7 +26355,7 @@
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V32" t="b">
@@ -26481,7 +26447,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V33" t="b">
@@ -26637,7 +26603,7 @@
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V35" t="b">
@@ -26725,7 +26691,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V36" t="b">
@@ -26817,7 +26783,7 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V37" t="b">
@@ -26997,7 +26963,7 @@
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V39" t="b">
@@ -27089,7 +27055,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V40" t="b">
@@ -27181,7 +27147,7 @@
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V41" t="b">
@@ -27629,7 +27595,7 @@
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V46" t="b">
@@ -28027,7 +27993,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>다산(茶山), 죽오(竹塢)</t>
+          <t>다산(茶山);죽오(竹塢)</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -28049,7 +28015,7 @@
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V51" t="b">
@@ -28141,7 +28107,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V52" t="b">
@@ -28585,7 +28551,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V57" t="b">
@@ -29025,7 +28991,7 @@
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V62" t="b">
@@ -29201,7 +29167,7 @@
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V64" t="b">
@@ -29293,7 +29259,7 @@
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V65" t="b">
@@ -29471,7 +29437,7 @@
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V67" t="b">
@@ -29647,7 +29613,7 @@
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V69" t="b">
@@ -29911,7 +29877,7 @@
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V72" t="b">
@@ -30065,7 +30031,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>기암(畸菴), 천용자(天慵子), 청청헌(淸淸軒)</t>
+          <t>기암(畸菴);천용자(天慵子);청청헌(淸淸軒)</t>
         </is>
       </c>
       <c r="P74" t="inlineStr"/>
@@ -30175,7 +30141,7 @@
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V75" t="b">
@@ -30259,7 +30225,7 @@
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V76" t="b">
@@ -30871,7 +30837,7 @@
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V83" t="b">
@@ -30959,7 +30925,7 @@
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V84" t="b">
@@ -31129,7 +31095,7 @@
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V86" t="b">
@@ -31217,7 +31183,7 @@
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V87" t="b">
@@ -31305,7 +31271,7 @@
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V88" t="b">
@@ -31485,7 +31451,7 @@
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V90" t="b">
@@ -31659,7 +31625,7 @@
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V92" t="b">
@@ -31751,7 +31717,7 @@
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V93" t="b">
@@ -32191,7 +32157,7 @@
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V98" t="b">
@@ -32367,7 +32333,7 @@
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V100" t="b">
@@ -32455,7 +32421,7 @@
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V101" t="b">
@@ -32631,7 +32597,7 @@
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V103" t="b">
@@ -32815,7 +32781,7 @@
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V105" t="b">
@@ -32985,7 +32951,7 @@
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V107" t="b">
@@ -33069,7 +33035,7 @@
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V108" t="b">
@@ -33161,7 +33127,7 @@
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V109" t="b">
@@ -33249,7 +33215,7 @@
       </c>
       <c r="U110" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V110" t="b">
@@ -33337,7 +33303,7 @@
       </c>
       <c r="U111" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V111" t="b">
@@ -33513,7 +33479,7 @@
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V113" t="b">
@@ -33579,7 +33545,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>누실(陋室), 약재(約齋)</t>
+          <t>누실(陋室);약재(約齋)</t>
         </is>
       </c>
       <c r="P114" t="inlineStr"/>
@@ -33601,7 +33567,7 @@
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V114" t="b">
@@ -33937,7 +33903,7 @@
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V118" t="b">
@@ -34025,7 +33991,7 @@
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V119" t="b">
@@ -34205,7 +34171,7 @@
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V121" t="b">
@@ -34469,7 +34435,7 @@
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V124" t="b">
@@ -34731,7 +34697,7 @@
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V127" t="b">
@@ -34815,7 +34781,7 @@
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V128" t="b">
@@ -34903,7 +34869,7 @@
       </c>
       <c r="U129" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V129" t="b">
@@ -35075,7 +35041,7 @@
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V131" t="b">
@@ -35255,7 +35221,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V133" t="b">
@@ -35337,7 +35303,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V134" t="b">
@@ -35421,7 +35387,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V135" t="b">
@@ -35593,7 +35559,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V137" t="b">
@@ -35937,7 +35903,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V141" t="b">
@@ -36085,7 +36051,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V143" t="b">
@@ -36169,7 +36135,7 @@
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V144" t="b">
@@ -36251,7 +36217,7 @@
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V145" t="b">
@@ -36339,7 +36305,7 @@
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V146" t="b">
@@ -37931,7 +37897,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>부훤당(負暄堂)</t>
+          <t>부훤(負暄)</t>
         </is>
       </c>
       <c r="P165" t="inlineStr"/>
@@ -37953,7 +37919,7 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V165" t="b">
@@ -38438,7 +38404,7 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>규장각 확인 결과 부, 시 문제로 진사시로 추측됨. 그러나 구체적인 시험일자 확인 불가</t>
+          <t>규장각 확인 결과 부;시 문제로 진사시로 추측됨. 그러나 구체적인 시험일자 확인 불가</t>
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
@@ -39115,7 +39081,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>중봉(重峯), 후율(後栗)</t>
+          <t>중봉(重峯);후율(後栗)</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
@@ -39509,7 +39475,7 @@
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V182" t="b">
@@ -39628,7 +39594,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>일치하는 시험 문제를 확인할 수 없었다. 또한, 한국고전종합DB 산목헌집 해제에서 부, 시, 표, 책이 1789년 초계문신으로 뽑혔을 때 課作으로 지은 것이라 설명되어 있다.</t>
+          <t>일치하는 시험 문제를 확인할 수 없었다. 또한;한국고전종합DB 산목헌집 해제에서 부;시;표;책이 1789년 초계문신으로 뽑혔을 때 課作으로 지은 것이라 설명되어 있다.</t>
         </is>
       </c>
       <c r="G184" t="inlineStr"/>
@@ -40637,7 +40603,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -40663,7 +40629,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>answer_writer</t>
+          <t>writer</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -40698,7 +40664,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>person_name</t>
+          <t>fullname</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -41676,7 +41642,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V18" t="b">
@@ -41940,7 +41906,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V21" t="b">
@@ -42024,7 +41990,7 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V22" t="b">
@@ -42116,7 +42082,7 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V23" t="b">
@@ -42384,7 +42350,7 @@
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V26" t="b">
@@ -42560,7 +42526,7 @@
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V28" t="b">
@@ -42648,7 +42614,7 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V29" t="b">
@@ -42736,7 +42702,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V30" t="b">
@@ -42802,7 +42768,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>누실(陋室), 약재(約齋)</t>
+          <t>누실(陋室);약재(約齋)</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -42824,7 +42790,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V31" t="b">
@@ -42996,7 +42962,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V33" t="b">
@@ -43061,12 +43027,12 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>차수(次修), 재선(在先), 수기(修其)</t>
+          <t>차수(次修);재선(在先);수기(修其)</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>초정(楚亭), 정유(貞蕤), 위항도인(葦杭道人)</t>
+          <t>초정(楚亭);정유(貞蕤);위항도인(葦杭道人)</t>
         </is>
       </c>
       <c r="P34" t="inlineStr"/>
@@ -43547,7 +43513,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>한성시, 조종저의 거주지, 문제를 통해 해당 시험으로 추측됨.</t>
+          <t>한성시;조종저의 거주지;문제를 통해 해당 시험으로 추측됨.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -43610,7 +43576,7 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V40" t="b">
@@ -43917,7 +43883,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>엑셀 1608번 問云云과 엑셀 1609 易義 精義入神以致用 문제가 같은 시권에 있다. 또한 4면에 응시자가 황세섭, 그의 나이가 40세였던 것을 통해 시험이 1710년에 치러졌던 것임을 확인하였다. 하지만 구체적인 시험 일정은 확인할 수 없었다</t>
+          <t>엑셀 1608번 問云云과 엑셀 1609 易義 精義入神以致用 문제가 같은 시권에 있다. 또한 4면에 응시자가 황세섭;그의 나이가 40세였던 것을 통해 시험이 1710년에 치러졌던 것임을 확인하였다. 하지만 구체적인 시험 일정은 확인할 수 없었다</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -44512,7 +44478,7 @@
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V52" t="b">
@@ -44590,7 +44556,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V53" t="b">
@@ -44816,7 +44782,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V56" t="b">
@@ -45194,7 +45160,7 @@
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>한성([京])</t>
+          <t>한성(京)</t>
         </is>
       </c>
       <c r="V61" t="b">
@@ -46694,7 +46660,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>태을암(太乙菴), 백호자(白毫子)</t>
+          <t>태을암(太乙菴);백호자(白毫子)</t>
         </is>
       </c>
       <c r="P85" t="inlineStr"/>
@@ -46720,40 +46686,6 @@
         </is>
       </c>
       <c r="V85" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>PE0000</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>미상</t>
-        </is>
-      </c>
-      <c r="V86" t="b">
         <v>0</v>
       </c>
     </row>
